--- a/data/trans_bre/P24_7_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P24_7_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>6,89</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>6,12</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,37</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>13,46</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>213,81%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>205,72%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>116,78%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>148,07%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>7.333357110636461</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>6.217043709267966</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.975087144259194</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>13.72737585736537</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>2.422030638991184</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>2.123090648357023</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>1.038978220536295</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.521977890246418</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>2,06; 11,78</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>1,53; 11,29</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,04; 9,93</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>5,52; 22,09</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>24,21; 785,56</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>10,15; 883,99</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-5,72; 568,92</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>39,47; 377,38</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>2.469079103946074</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>1.724144666539236</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.4056450944493455</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>5.702954450122622</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0.3395060265671687</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.1002463968602318</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.1455544514211302</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.4005018660194991</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>12.51777621209665</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>11.7217508803681</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>9.247038327748145</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>22.75934170518519</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>8.752792188565232</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>8.92877224977485</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>4.905453273809155</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>3.950120543269716</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>5,68</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5,75</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,18</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>13,25</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>156,46%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>99,93%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>52,95%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>129,73%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0,64; 11,92</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,71; 12,97</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,68; 10,2</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>3,51; 28,02</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-8,46; 886,78</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-18,16; 394,9</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-38,26; 289,76</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>17,26; 424,85</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>5.884982260770315</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>7.26754137148525</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>4.045877959889861</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>12.88045645732334</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>1.874926804895735</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>1.361800308979253</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.7072870339547583</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1.360054408489292</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>4,72</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,11</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>7,6</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,49</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>138,46%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>168,27%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>148,2%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-3,31%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>1.247791974053506</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.6495754753235758</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-1.67704147815914</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>3.300122825636287</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.02542516599019348</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.03243311377389051</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.3174473702841027</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.2059263332402535</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-7,28; 16,77</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,21; 16,81</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-4,18; 21,92</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-17,14; 19,73</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-74,31; 377,16</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>12.18011276789009</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>15.31417102360895</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>11.96148715765636</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>25.63216790386566</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>10.06931326121914</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>5.253447984985073</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>3.39702315941016</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>4.159749390134973</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,185 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>6,18</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>5,73</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,19</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>11,9</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>181,34%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>140,56%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>87,06%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>116,8%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>5.364152469766603</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>4.61575163961464</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>8.772191252056823</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-1.227402648664891</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>1.815305281551443</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>2.082996438363342</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>1.657887467860225</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.07831116934288608</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>2,75; 10,03</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2,1; 9,55</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,55; 8,11</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>5,27; 19,49</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>47,24; 501,08</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>26,25; 349,56</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>2,29; 238,71</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>36,84; 239,55</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-5.195670789642016</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-2.687551308918703</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-3.507888403256629</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-18.87996503929006</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.757851906719372</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>17.61394927992426</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>17.87066007914698</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>24.29902935350555</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>19.46601905073688</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>3.381128726634778</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>6.554422037714786</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>6.401831359591958</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>4.472837918671325</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>11.74801587041306</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>2.137231625872304</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1.647718243818487</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.9351436740370849</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>1.178054038293031</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>3.213033547410735</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>2.704107756458136</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.8214876286125969</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>5.119800365161837</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.626379038993471</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.4280330997908066</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.08300806508507577</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.3366627469064301</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>10.46177043852035</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>10.75855692440769</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>8.42162706297235</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>19.13731996213079</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>5.726966974934578</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>3.985807069326023</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>2.603013249714271</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>2.347070207508918</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1013,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
